--- a/zutnlp-text/doc/log/赵向阳.xlsx
+++ b/zutnlp-text/doc/log/赵向阳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZXY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF43B59B-BC1F-4623-ABB3-EF135B6BBAA5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{297DE967-AF65-4A4D-866C-521928942E95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>日志报告</t>
   </si>
@@ -142,6 +142,62 @@
   </si>
   <si>
     <t>表写入数据库时service显示错误，正在修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.24</t>
+  </si>
+  <si>
+    <t>将数据写进数据库，输出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不算很成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据可以写进数据库，但是输出的形式不是很满意</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.25</t>
+  </si>
+  <si>
+    <t>写进去一部分，环境错了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEA的环境错了，重新搭建了IDEA，并且配置了VUE环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.26</t>
+  </si>
+  <si>
+    <t>数据跑进库，制作页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库成功，页面失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对vue的使用不是很了解，需要加倍努力对vue的学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.27</t>
+  </si>
+  <si>
+    <t>用vue制作页面,实现功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能没有实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对boot框架实现功能方面不是很了解，需要加倍学习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +292,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -540,12 +608,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -673,10 +741,62 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/zutnlp-text/doc/log/赵向阳.xlsx
+++ b/zutnlp-text/doc/log/赵向阳.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZXY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{297DE967-AF65-4A4D-866C-521928942E95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D857948-ACD2-40F6-86CA-D489B8969A96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>日志报告</t>
   </si>
@@ -55,9 +55,6 @@
     <t>学习boot框架中的web</t>
   </si>
   <si>
-    <t>失败</t>
-  </si>
-  <si>
     <t>没有怎么看懂里面结构</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>学习hello中的框架结构</t>
   </si>
   <si>
-    <t>存在少许疑问</t>
-  </si>
-  <si>
     <t>一些结构联系没有明白</t>
   </si>
   <si>
@@ -92,10 +86,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>失败，完全不会写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>不知道接口在boot框架中的形式和功能，没有成品模型进行参考，不知道从哪里写</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -137,10 +127,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>框架已经完善</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>表写入数据库时service显示错误，正在修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -152,10 +138,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>不算很成功</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>数据可以写进数据库，但是输出的形式不是很满意</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -193,11 +175,103 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>功能没有实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对boot框架实现功能方面不是很了解，需要加倍学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.28</t>
+  </si>
+  <si>
+    <t>2018.07.29</t>
+  </si>
+  <si>
+    <t>2018.07.30</t>
+  </si>
+  <si>
+    <t>2018.07.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的交互，web与数据库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据无法进行传输</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>web与数据库交互</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>web界面的搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面成功，没有功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能的实现没有学会</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到数据可视化的方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建vue环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建了几个简单的框架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>认真学习了里面的代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立了大量失败的例子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用简单的例子可以写例子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作了一个简单的显示面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置了九遍的vue环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置环境时最后输入安装命令时一直失败，前面的命令成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据库的内容展到web</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用几个简单的框架试验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.02</t>
+  </si>
+  <si>
+    <t>完成数据的交互</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善搭建的框架细节</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,6 +366,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -608,12 +688,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -651,169 +731,236 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/zutnlp-text/doc/log/赵向阳.xlsx
+++ b/zutnlp-text/doc/log/赵向阳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZXY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D857948-ACD2-40F6-86CA-D489B8969A96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E611B838-A29F-483D-90ED-4DEE93977F88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>日志报告</t>
   </si>
@@ -272,6 +272,14 @@
   </si>
   <si>
     <t>完善搭建的框架细节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据正常展示到web</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法将web上的数据传入数据库，不知道方法</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -674,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -947,6 +955,12 @@
       </c>
       <c r="B20" s="4" t="s">
         <v>69</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
